--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF96D74-B021-4C7E-A75B-B7B7CF014351}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C693F-40DF-4121-B1FE-8ECA16F66CDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>得意先</t>
     <rPh sb="0" eb="3">
@@ -113,6 +113,26 @@
     <t>粗利率</t>
     <rPh sb="0" eb="3">
       <t>アラリリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客先番号</t>
+    <rPh sb="0" eb="2">
+      <t>キャクサキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業担当者</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,26 +542,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="11" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -551,39 +572,47 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C693F-40DF-4121-B1FE-8ECA16F66CDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19486842-22B0-4364-AEA2-2116BBFE8541}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>得意先</t>
     <rPh sb="0" eb="3">
@@ -113,26 +113,6 @@
     <t>粗利率</t>
     <rPh sb="0" eb="3">
       <t>アラリリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>客先番号</t>
-    <rPh sb="0" eb="2">
-      <t>キャクサキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業担当者</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -141,7 +121,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +145,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -201,12 +192,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,14 +216,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,27 +540,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -572,47 +569,39 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19486842-22B0-4364-AEA2-2116BBFE8541}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7505A63-A980-4F71-B66C-3CDF783A5FBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="33330" yWindow="1665" windowWidth="21600" windowHeight="12780" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,8 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -200,29 +201,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,65 +550,66 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="10" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10" style="9" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tateiwa\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7505A63-A980-4F71-B66C-3CDF783A5FBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3B66D-758A-4300-8E31-D00F43FF395D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="1665" windowWidth="21600" windowHeight="12780" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>得意先</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>売上番号</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注Ver</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行No</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上Ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意先コード</t>
     <rPh sb="0" eb="3">
       <t>トクイサキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VAT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>売上番号</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
+    <t>得意先名</t>
+    <rPh sb="0" eb="3">
+      <t>トクイサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型式</t>
+    <rPh sb="0" eb="2">
+      <t>カタシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売通貨</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注単価(原通貨)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注単価(IDR)       a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注数量b</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注金額(原通貨)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注番号</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
@@ -53,34 +178,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上日</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
+    <t>発注Ver</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行No</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入番号</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入区分</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入先コード</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>売上計</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入通貨</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入原価(原通貨)</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利益                  g=c-e-f</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利益率                     h=g/c</t>
+    <rPh sb="0" eb="2">
+      <t>リエキ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>売上 + VAT</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>間接費</t>
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入単価(IDR)       d</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入原価(IDR)                   e=b*d</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間接費        f</t>
     <rPh sb="0" eb="2">
       <t>カンセツ</t>
     </rPh>
@@ -90,29 +295,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上原価計</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
+    <t>受注金額(IDR)                 c=a*b</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ゲンカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>粗利</t>
-    <rPh sb="0" eb="2">
-      <t>アラリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>粗利率</t>
-    <rPh sb="0" eb="3">
-      <t>アラリリツ</t>
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入単価(原通貨)</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,9 +325,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -166,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,25 +390,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,29 +412,63 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -547,69 +782,1333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8"/>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE6477-DCBB-49BF-A3A4-DE721B49A6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47640AC7-0A90-4480-AEB7-ED6B0B3DCE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>売上番号</t>
     <rPh sb="0" eb="2">
@@ -299,6 +299,19 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入先名</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -760,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
@@ -801,7 +814,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="45.4" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:39" ht="60.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -875,27 +888,30 @@
         <v>20</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -925,14 +941,14 @@
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="7"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="12"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
@@ -966,13 +982,13 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="7"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="7"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="10"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47640AC7-0A90-4480-AEB7-ED6B0B3DCE8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C8C39-667C-4F30-981E-457E211BF7D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
@@ -32,16 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
-    <t>売上番号</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受注番号</t>
     <rPh sb="0" eb="2">
       <t>ジュチュウ</t>
@@ -66,10 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上Ver</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>得意先コード</t>
     <rPh sb="0" eb="3">
       <t>トクイサキ</t>
@@ -313,6 +299,14 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SalesInvoiceNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SalesInvoiceDate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -773,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AG6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
@@ -782,8 +776,8 @@
     <col min="1" max="1" width="7.0625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.4375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.0625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.0625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
@@ -816,103 +810,103 @@
   <sheetData>
     <row r="1" spans="1:39" ht="60.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="15.4" thickTop="1" x14ac:dyDescent="0.7">

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C8C39-667C-4F30-981E-457E211BF7D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7DEE4-3850-4B71-9E2E-F10AFEF2C6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>受注番号</t>
     <rPh sb="0" eb="2">
@@ -168,16 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕入番号</t>
-    <rPh sb="0" eb="2">
-      <t>シイレ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕入区分</t>
     <rPh sb="0" eb="2">
       <t>シイレ</t>
@@ -307,6 +297,16 @@
   </si>
   <si>
     <t>SalesInvoiceDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行番号</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,12 +314,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -391,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,15 +427,6 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -448,6 +441,33 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -765,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
@@ -794,205 +814,196 @@
     <col min="19" max="19" width="6.3125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.4375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.4375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="60.4" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:37" ht="45.4" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="X1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Z1" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="AF1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="15.4" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="13"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.4" thickTop="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="20"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="15"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="12"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.7">
-      <c r="A3" s="7"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.7">
+      <c r="A3" s="16"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="10"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="24"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.7">
-      <c r="A4" s="7"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.7">
+      <c r="A4" s="10"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -1029,10 +1040,8 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1070,10 +1079,8 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1111,10 +1118,8 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1152,10 +1157,8 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1193,10 +1196,8 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1234,10 +1235,8 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1275,10 +1274,8 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1316,10 +1313,8 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1357,10 +1352,8 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1398,10 +1391,8 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1439,10 +1430,8 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1480,10 +1469,8 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1521,10 +1508,8 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1562,10 +1547,8 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1603,10 +1586,8 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1644,10 +1625,8 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1685,10 +1664,8 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1726,10 +1703,8 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1767,10 +1742,8 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1808,10 +1781,8 @@
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1849,10 +1820,8 @@
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1890,10 +1859,8 @@
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1931,10 +1898,8 @@
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1972,10 +1937,8 @@
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2013,10 +1976,8 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2054,10 +2015,8 @@
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.7">
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.7">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2095,8 +2054,6 @@
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7DEE4-3850-4B71-9E2E-F10AFEF2C6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="14745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,28 +312,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -342,7 +336,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -350,7 +344,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -393,17 +387,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,59 +415,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,49 +751,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AF3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="7.0625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.4375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.0625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.0625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.4375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45.4" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:37" ht="60.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -839,25 +806,25 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -924,88 +891,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.4" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:37" s="7" customFormat="1" ht="12.75" thickTop="1">
+      <c r="A2" s="12"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="13"/>
+    </row>
+    <row r="3" spans="1:37" s="7" customFormat="1">
+      <c r="A3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+    </row>
+    <row r="4" spans="1:37" s="7" customFormat="1">
+      <c r="A4" s="13"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1013,38 +955,8 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    </row>
+    <row r="5" spans="1:37" s="7" customFormat="1">
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1052,38 +964,8 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+    </row>
+    <row r="6" spans="1:37" s="7" customFormat="1">
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1091,35 +973,8 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.7">
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1158,7 +1013,7 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:37">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1197,7 +1052,7 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:37">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1236,7 +1091,7 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:37">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1275,7 +1130,7 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:37">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1314,7 +1169,7 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:37">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1353,7 +1208,7 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:37">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1392,7 +1247,7 @@
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:37">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1431,7 +1286,7 @@
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:37">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1470,7 +1325,7 @@
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:37">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1509,7 +1364,7 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:37">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1548,7 +1403,7 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:37">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1587,7 +1442,7 @@
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:37">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1626,7 +1481,7 @@
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:37">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1665,7 +1520,7 @@
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:37">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1704,7 +1559,7 @@
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:37">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1743,7 +1598,7 @@
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:37">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1782,7 +1637,7 @@
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:37">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1821,7 +1676,7 @@
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:37">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1860,7 +1715,7 @@
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:37">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1899,7 +1754,7 @@
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:37">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1938,7 +1793,7 @@
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:37">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1977,7 +1832,7 @@
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:37">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2016,7 +1871,7 @@
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:37">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/SalesProfitList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>SALES</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>PURCLASS</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,9 +303,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -645,54 +648,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="B1:AP29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="4" customFormat="1" ht="26.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:42" s="4" customFormat="1" ht="26.25">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -710,150 +715,161 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
-      <c r="T1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AD1" s="6"/>
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="7"/>
-    </row>
-    <row r="2" spans="1:39" s="4" customFormat="1">
-      <c r="A2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="7"/>
+    </row>
+    <row r="2" spans="2:42" s="4" customFormat="1">
+      <c r="B2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="L2" s="5"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
-    </row>
-    <row r="3" spans="1:39" s="4" customFormat="1" ht="26.25">
-      <c r="A3" s="19" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+    </row>
+    <row r="3" spans="2:42" s="4" customFormat="1" ht="26.25">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-    </row>
-    <row r="4" spans="1:39" s="4" customFormat="1" ht="15.75">
-      <c r="A4" s="14" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="12"/>
+    </row>
+    <row r="4" spans="2:42" s="4" customFormat="1" ht="15.75">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="T4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="V4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="4" customFormat="1">
-      <c r="E5" s="5"/>
+    <row r="5" spans="2:42" s="4" customFormat="1">
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="4"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:42">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -881,20 +897,22 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7" spans="2:42">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -922,20 +940,22 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8" spans="2:42">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -963,20 +983,22 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9" spans="2:42">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1004,20 +1026,22 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10" spans="2:42">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1045,20 +1069,22 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="A11" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="11" spans="2:42">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1086,20 +1112,22 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="12" spans="2:42">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1127,20 +1155,22 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+    </row>
+    <row r="13" spans="2:42">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1168,20 +1198,22 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+    </row>
+    <row r="14" spans="2:42">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1209,20 +1241,22 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+    </row>
+    <row r="15" spans="2:42">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1250,20 +1284,22 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+    </row>
+    <row r="16" spans="2:42">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1291,20 +1327,22 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+    </row>
+    <row r="17" spans="2:42">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1332,20 +1370,22 @@
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
-    </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18" spans="2:42">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1373,20 +1413,22 @@
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+    </row>
+    <row r="19" spans="2:42">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1414,20 +1456,22 @@
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+    </row>
+    <row r="20" spans="2:42">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1455,20 +1499,22 @@
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-    </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+    </row>
+    <row r="21" spans="2:42">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1496,20 +1542,22 @@
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="A22" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+    </row>
+    <row r="22" spans="2:42">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1537,20 +1585,22 @@
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-    </row>
-    <row r="23" spans="1:39">
-      <c r="A23" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+    </row>
+    <row r="23" spans="2:42">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1578,20 +1628,22 @@
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
-    </row>
-    <row r="24" spans="1:39">
-      <c r="A24" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+    </row>
+    <row r="24" spans="2:42">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1619,20 +1671,22 @@
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="A25" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+    </row>
+    <row r="25" spans="2:42">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -1660,20 +1714,22 @@
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
-    </row>
-    <row r="26" spans="1:39">
-      <c r="A26" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+    </row>
+    <row r="26" spans="2:42">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1701,20 +1757,22 @@
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
-    </row>
-    <row r="27" spans="1:39">
-      <c r="A27" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+    </row>
+    <row r="27" spans="2:42">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="5"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -1742,20 +1800,22 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
-    </row>
-    <row r="28" spans="1:39">
-      <c r="A28" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+    </row>
+    <row r="28" spans="2:42">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1783,20 +1843,22 @@
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-    </row>
-    <row r="29" spans="1:39">
-      <c r="A29" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+    </row>
+    <row r="29" spans="2:42">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="4"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1824,6 +1886,9 @@
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
